--- a/Tableros2.xlsx
+++ b/Tableros2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unimagdalena\Desktop\IA_2022_I\bioinspirados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8360818-D8C6-4237-817B-8643454F4B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AECBCB2C-EE7E-4C60-A088-6F5CE7828216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F9128398-1B63-4747-A65C-FA8419885A08}"/>
+    <workbookView xWindow="4875" yWindow="2415" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{F9128398-1B63-4747-A65C-FA8419885A08}"/>
   </bookViews>
   <sheets>
     <sheet name="N=4" sheetId="1" r:id="rId1"/>

--- a/Tableros2.xlsx
+++ b/Tableros2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Universidad\IA\Informe IA\proyecto_reynas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AECBCB2C-EE7E-4C60-A088-6F5CE7828216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45815D0B-04BD-4523-9B9B-1D6FD9895325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="2415" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{F9128398-1B63-4747-A65C-FA8419885A08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F9128398-1B63-4747-A65C-FA8419885A08}"/>
   </bookViews>
   <sheets>
     <sheet name="N=4" sheetId="1" r:id="rId1"/>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2944C-8A1D-4FBC-A6D5-F62B1C2E6ED8}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D0F836-40F6-4A9A-9683-02892C0FB596}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Tableros2.xlsx
+++ b/Tableros2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Universidad\IA\Informe IA\proyecto_reynas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebax\WSL\python\proyecto_reynas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45815D0B-04BD-4523-9B9B-1D6FD9895325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB99FA1-80A1-486D-94CC-1D0B0378467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F9128398-1B63-4747-A65C-FA8419885A08}"/>
+    <workbookView xWindow="14535" yWindow="2160" windowWidth="12975" windowHeight="11385" xr2:uid="{F9128398-1B63-4747-A65C-FA8419885A08}"/>
   </bookViews>
   <sheets>
     <sheet name="N=4" sheetId="1" r:id="rId1"/>
